--- a/RunData/TestData.xlsx
+++ b/RunData/TestData.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\booba\git\Cucumber_TestNG\RunData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AB1D29-E7EF-48C4-9F24-C22429EF1838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D09A28-8AFD-4EF3-AB70-18F877B7F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCaseData" sheetId="1" r:id="rId1"/>
+    <sheet name="RunSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="TestCaseData" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RunSheet!$A$1:$E$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>C1R1</t>
   </si>
@@ -100,13 +104,52 @@
   </si>
   <si>
     <t>C5R5</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Validate weather with UI and API</t>
+  </si>
+  <si>
+    <t>Fetch UI temperature value</t>
+  </si>
+  <si>
+    <t>Validate temperature for multiple cities</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>TCNo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Validate Page title</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +163,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,12 +192,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,16 +509,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF18A4-496F-4D1A-B5D1-CF40A4A00A3F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="8.88671875" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E5" xr:uid="{60EF18A4-496F-4D1A-B5D1-CF40A4A00A3F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -482,7 +644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>

--- a/RunData/TestData.xlsx
+++ b/RunData/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\booba\git\Cucumber_TestNG\RunData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D09A28-8AFD-4EF3-AB70-18F877B7F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355EE1E0-D383-4A10-90DA-ADBE8D967264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunSheet" sheetId="2" r:id="rId1"/>
-    <sheet name="TestCaseData" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="TestCaseData" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RunSheet!$A$1:$E$5</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>C1R1</t>
   </si>
@@ -139,17 +140,20 @@
     <t>Validate Page title</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>Firefox</t>
+  </si>
+  <si>
+    <t>UI_Temp</t>
+  </si>
+  <si>
+    <t>API_Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,10 +168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,8 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -220,14 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,80 +509,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF18A4-496F-4D1A-B5D1-CF40A4A00A3F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="8.88671875" style="4" collapsed="1"/>
+    <col min="1" max="1" width="48" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="8.88671875" style="1" collapsed="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E5" xr:uid="{60EF18A4-496F-4D1A-B5D1-CF40A4A00A3F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BDFD88-CB47-4EDC-A043-0E6B12097056}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -591,9 +607,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -627,7 +643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -644,7 +660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -661,7 +677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
